--- a/src/Magicodes.ExporterAndImporter.Tests/Models/Importer_test.xlsx
+++ b/src/Magicodes.ExporterAndImporter.Tests/Models/Importer_test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01F0E00-26B3-4E43-93D3-F94507E23B87}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF38EC0-9FD4-4387-83D4-CCA5089DA1F2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,24 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Name1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,23 +346,23 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1">
         <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
